--- a/biology/Botanique/Tuscan/Tuscan.xlsx
+++ b/biology/Botanique/Tuscan/Tuscan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tuscan est d'un cultivar de pommiers domestiques colonnaire de première génération.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bolero.</t>
         </is>
@@ -541,9 +555,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">East Mailing Research Station, Maidstone, Kent, Angleterre, 1989[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">East Mailing Research Station, Maidstone, Kent, Angleterre, 1989
 </t>
         </is>
       </c>
@@ -572,7 +588,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Calibre: mi-gros
 Peau: jaune-vert</t>
@@ -603,7 +621,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sélection du croisement  'McIntosh Wijcik' (s10s25) x 'Greensleeve' (s2s5)
 Descendants colonnaires:
@@ -639,11 +659,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Variété diploïde, donc participant à la pollinisation croisée
-Floraison groupe B[2]
-S-génotype: s5s10[3],[4]</t>
+Floraison groupe B
+S-génotype: s5s10,</t>
         </is>
       </c>
     </row>
@@ -671,7 +693,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>assez susceptible aux maladies du pommier ; dans les jardins on lui préfèrera donc ses descendants résistants aux races communes de tavelure.</t>
         </is>
@@ -701,10 +725,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Port colonnaire hérité du mutant McIntosh 'Wijcik'.
-Fructification: considéré de type spur[5], donc taille courte
+Fructification: considéré de type spur, donc taille courte
 Consommation: septembre/ octobre</t>
         </is>
       </c>
